--- a/test meb.xlsx
+++ b/test meb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuelab/Desktop/Automation T-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{383AF9BD-6F5D-F643-ADBE-1C15FF2EE6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D5EEB-9C95-0E49-944F-4A8263AE51CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7400" yWindow="9380" windowWidth="27240" windowHeight="16440" xr2:uid="{9CF9F506-1278-C24C-A5DC-90CAC61FBD12}"/>
+    <workbookView xWindow="7400" yWindow="5960" windowWidth="27240" windowHeight="16440" xr2:uid="{9CF9F506-1278-C24C-A5DC-90CAC61FBD12}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,12 +35,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Monetizing Enlistment Bonuses - Control </t>
   </si>
   <si>
     <t xml:space="preserve">Monetizing Enlistment Bonuses - Variation A </t>
+  </si>
+  <si>
+    <t>visits</t>
+  </si>
+  <si>
+    <t>conversion</t>
   </si>
 </sst>
 </file>
@@ -471,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F926849C-2B89-8F43-A215-0B3F6295D83D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,24 +489,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>155576</v>
-      </c>
-      <c r="C1" s="2">
-        <v>1697</v>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>155576</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4">
         <v>154155</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C3" s="4">
         <v>1733</v>
       </c>
     </row>
